--- a/dataset/NEW_TEST/selec/w_merge.xlsx
+++ b/dataset/NEW_TEST/selec/w_merge.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9268219550450643</v>
+        <v>0.9290534575780233</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8377592351501554</v>
+        <v>0.7538789861292626</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6318951481411288</v>
+        <v>0.7788068521375875</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02145943826009588</v>
+        <v>0.04459469584525418</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7204088281168135</v>
+        <v>0.7661402035839581</v>
       </c>
     </row>
   </sheetData>
